--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna3-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna3-Epha5.xlsx
@@ -79,13 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Efna3</t>
   </si>
   <si>
     <t>Epha5</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,16 +531,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08624800000000001</v>
+        <v>0.046374</v>
       </c>
       <c r="H2">
-        <v>0.258744</v>
+        <v>0.139122</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6592866045237633</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6592866045237632</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,42 +549,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.008504666666666666</v>
+        <v>0.0002903333333333334</v>
       </c>
       <c r="N2">
-        <v>0.025514</v>
+        <v>0.000871</v>
       </c>
       <c r="O2">
-        <v>0.428094431114616</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.428094431114616</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0007335104906666666</v>
+        <v>1.3463918E-05</v>
       </c>
       <c r="R2">
-        <v>0.006601594416000001</v>
+        <v>0.000121175262</v>
       </c>
       <c r="S2">
-        <v>0.428094431114616</v>
+        <v>0.6592866045237633</v>
       </c>
       <c r="T2">
-        <v>0.428094431114616</v>
+        <v>0.6592866045237632</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -593,16 +593,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08624800000000001</v>
+        <v>0.02396566666666667</v>
       </c>
       <c r="H3">
-        <v>0.258744</v>
+        <v>0.071897</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3407133954762367</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3407133954762367</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -611,28 +611,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01136166666666667</v>
+        <v>0.0002903333333333334</v>
       </c>
       <c r="N3">
-        <v>0.034085</v>
+        <v>0.000871</v>
       </c>
       <c r="O3">
-        <v>0.571905568885384</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.571905568885384</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0009799210266666668</v>
+        <v>6.95803188888889E-06</v>
       </c>
       <c r="R3">
-        <v>0.008819289240000002</v>
+        <v>6.2622287E-05</v>
       </c>
       <c r="S3">
-        <v>0.571905568885384</v>
+        <v>0.3407133954762367</v>
       </c>
       <c r="T3">
-        <v>0.571905568885384</v>
+        <v>0.3407133954762367</v>
       </c>
     </row>
   </sheetData>
